--- a/x_prediction_3.xlsx
+++ b/x_prediction_3.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC36B3-78AA-410A-B7F9-58B444DD216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,194 +428,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.448424339294434</v>
+        <v>4.4484243392944336</v>
       </c>
       <c r="C2">
-        <v>5.71944522857666</v>
+        <v>5.7194452285766602</v>
       </c>
       <c r="D2">
-        <v>0.3024021983146667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.30240219831466669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5.106407165527344</v>
+        <v>5.1064071655273438</v>
       </c>
       <c r="C3">
-        <v>5.60746955871582</v>
+        <v>5.6074695587158203</v>
       </c>
       <c r="D3">
-        <v>0.3140974938869476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.31409749388694758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4.073040962219238</v>
+        <v>4.0730409622192383</v>
       </c>
       <c r="C4">
-        <v>5.631511211395264</v>
+        <v>5.6315112113952637</v>
       </c>
       <c r="D4">
-        <v>0.2670683264732361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.26706832647323608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4.658531665802002</v>
       </c>
       <c r="C5">
-        <v>4.113134860992432</v>
+        <v>4.1131348609924316</v>
       </c>
       <c r="D5">
-        <v>0.3287898898124695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.32878988981246948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3.687462091445923</v>
+        <v>3.6874620914459229</v>
       </c>
       <c r="C6">
-        <v>4.501276016235352</v>
+        <v>4.5012760162353516</v>
       </c>
       <c r="D6">
-        <v>0.3458501994609833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.34585019946098328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5.080296039581299</v>
+        <v>5.0802960395812988</v>
       </c>
       <c r="C7">
-        <v>4.289546489715576</v>
+        <v>4.2895464897155762</v>
       </c>
       <c r="D7">
-        <v>0.3407698571681976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.34076985716819758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.328565120697021</v>
+        <v>4.3285651206970206</v>
       </c>
       <c r="C8">
-        <v>3.529008865356445</v>
+        <v>3.5290088653564449</v>
       </c>
       <c r="D8">
-        <v>0.3347411155700684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.33474111557006841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5.268206119537354</v>
+        <v>5.2682061195373544</v>
       </c>
       <c r="C9">
-        <v>4.683375835418701</v>
+        <v>4.6833758354187012</v>
       </c>
       <c r="D9">
-        <v>0.297392874956131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.29739287495613098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2.467087507247925</v>
+        <v>2.4670875072479248</v>
       </c>
       <c r="C10">
-        <v>4.695192337036133</v>
+        <v>4.6951923370361328</v>
       </c>
       <c r="D10">
         <v>0.2366654425859451</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5.272218704223633</v>
+        <v>5.2722187042236328</v>
       </c>
       <c r="C11">
-        <v>6.981519222259521</v>
+        <v>6.9815192222595206</v>
       </c>
       <c r="D11">
         <v>0.3364633321762085</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4.099390029907227</v>
+        <v>4.0993900299072266</v>
       </c>
       <c r="C12">
-        <v>6.490492820739746</v>
+        <v>6.4904928207397461</v>
       </c>
       <c r="D12">
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>5.028896331787109</v>
+        <v>5.0288963317871094</v>
       </c>
       <c r="C13">
-        <v>7.805915832519531</v>
+        <v>7.8059158325195313</v>
       </c>
       <c r="D13">
-        <v>0.409606009721756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.40960600972175598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>5.678902149200439</v>
+        <v>5.6789021492004386</v>
       </c>
       <c r="C14">
-        <v>5.399412155151367</v>
+        <v>5.3994121551513672</v>
       </c>
       <c r="D14">
-        <v>0.3753251433372498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.37532514333724981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>5.086593151092529</v>
+        <v>5.0865931510925293</v>
       </c>
       <c r="C15">
         <v>4.257023811340332</v>
@@ -593,40 +624,40 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>5.256161689758301</v>
+        <v>5.2561616897583008</v>
       </c>
       <c r="C16">
-        <v>5.407812118530273</v>
+        <v>5.4078121185302734</v>
       </c>
       <c r="D16">
-        <v>0.3781014978885651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.37810149788856512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5.873445510864258</v>
+        <v>5.8734455108642578</v>
       </c>
       <c r="C17">
-        <v>8.047231674194336</v>
+        <v>8.0472316741943359</v>
       </c>
       <c r="D17">
-        <v>0.3737307190895081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.37373071908950811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>6.020371437072754</v>
+        <v>6.0203714370727539</v>
       </c>
       <c r="C18">
         <v>3.761805534362793</v>
@@ -635,1146 +666,1146 @@
         <v>0.3663966953754425</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>4.243746757507324</v>
+        <v>4.2437467575073242</v>
       </c>
       <c r="C19">
         <v>3.749594926834106</v>
       </c>
       <c r="D19">
-        <v>0.3735129237174988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.37351292371749878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>4.337158203125</v>
       </c>
       <c r="C20">
-        <v>4.176908493041992</v>
+        <v>4.1769084930419922</v>
       </c>
       <c r="D20">
-        <v>0.3303050398826599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.33030503988265991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>5.231163024902344</v>
+        <v>5.2311630249023438</v>
       </c>
       <c r="C21">
         <v>6.057985782623291</v>
       </c>
       <c r="D21">
-        <v>0.3115710020065308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.31157100200653082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>5.842191219329834</v>
       </c>
       <c r="C22">
-        <v>5.326364040374756</v>
+        <v>5.3263640403747559</v>
       </c>
       <c r="D22">
-        <v>0.3257437348365784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.32574373483657842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>6.080269336700439</v>
+        <v>6.0802693367004386</v>
       </c>
       <c r="C23">
-        <v>4.837178230285645</v>
+        <v>4.8371782302856454</v>
       </c>
       <c r="D23">
-        <v>0.3156482875347137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.31564828753471369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>5.749485015869141</v>
+        <v>5.7494850158691406</v>
       </c>
       <c r="C24">
-        <v>6.092307090759277</v>
+        <v>6.0923070907592773</v>
       </c>
       <c r="D24">
-        <v>0.3270260393619537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.32702603936195368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>6.685297012329102</v>
+        <v>6.6852970123291016</v>
       </c>
       <c r="C25">
         <v>5.216092586517334</v>
       </c>
       <c r="D25">
-        <v>0.2747488915920258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.27474889159202581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>4.326677799224854</v>
+        <v>4.3266777992248544</v>
       </c>
       <c r="C26">
-        <v>6.901384353637695</v>
+        <v>6.9013843536376953</v>
       </c>
       <c r="D26">
-        <v>0.3637668490409851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.36376684904098511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>10.83905506134033</v>
       </c>
       <c r="C27">
-        <v>3.731641054153442</v>
+        <v>3.7316410541534419</v>
       </c>
       <c r="D27">
-        <v>0.2972356677055359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.29723566770553589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>4.76456880569458</v>
+        <v>4.7645688056945801</v>
       </c>
       <c r="C28">
-        <v>5.016383647918701</v>
+        <v>5.0163836479187012</v>
       </c>
       <c r="D28">
-        <v>0.3693659603595734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.36936596035957342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>5.129481315612793</v>
       </c>
       <c r="C29">
-        <v>3.609879493713379</v>
+        <v>3.6098794937133789</v>
       </c>
       <c r="D29">
-        <v>0.3746910989284515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.37469109892845148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>5.242709636688232</v>
+        <v>5.2427096366882324</v>
       </c>
       <c r="C30">
-        <v>3.809954643249512</v>
+        <v>3.8099546432495122</v>
       </c>
       <c r="D30">
-        <v>0.4163762331008911</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.41637623310089111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>5.804536819458008</v>
+        <v>5.8045368194580078</v>
       </c>
       <c r="C31">
-        <v>3.536461114883423</v>
+        <v>3.5364611148834229</v>
       </c>
       <c r="D31">
-        <v>0.357747495174408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.35774749517440801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>4.916415214538574</v>
+        <v>4.9164152145385742</v>
       </c>
       <c r="C32">
-        <v>6.780664920806885</v>
+        <v>6.7806649208068848</v>
       </c>
       <c r="D32">
-        <v>0.2872296869754791</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.28722968697547913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>16.02993583679199</v>
+        <v>16.029935836791989</v>
       </c>
       <c r="C33">
-        <v>4.958673000335693</v>
+        <v>4.9586730003356934</v>
       </c>
       <c r="D33">
-        <v>0.3100964426994324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.31009644269943237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>5.825430393218994</v>
+        <v>5.8254303932189941</v>
       </c>
       <c r="C34">
-        <v>5.665029048919678</v>
+        <v>5.6650290489196777</v>
       </c>
       <c r="D34">
         <v>0.3708406388759613</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>8.605299949645996</v>
+        <v>8.6052999496459961</v>
       </c>
       <c r="C35">
-        <v>3.941800832748413</v>
+        <v>3.9418008327484131</v>
       </c>
       <c r="D35">
-        <v>0.3953741490840912</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.39537414908409119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>4.389133930206299</v>
+        <v>4.3891339302062988</v>
       </c>
       <c r="C36">
-        <v>5.879327297210693</v>
+        <v>5.8793272972106934</v>
       </c>
       <c r="D36">
         <v>0.3065263032913208</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>5.655261516571045</v>
+        <v>5.6552615165710449</v>
       </c>
       <c r="C37">
-        <v>5.786797523498535</v>
+        <v>5.7867975234985352</v>
       </c>
       <c r="D37">
-        <v>0.3107607662677765</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.31076076626777649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>4.20188570022583</v>
+        <v>4.2018857002258301</v>
       </c>
       <c r="C38">
         <v>5.322390079498291</v>
       </c>
       <c r="D38">
-        <v>0.2649545073509216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.26495450735092158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>5.128212451934814</v>
+        <v>5.1282124519348136</v>
       </c>
       <c r="C39">
-        <v>4.270204544067383</v>
+        <v>4.2702045440673828</v>
       </c>
       <c r="D39">
-        <v>0.3310806751251221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.33108067512512213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>3.653804063796997</v>
+        <v>3.6538040637969971</v>
       </c>
       <c r="C40">
-        <v>4.678753852844238</v>
+        <v>4.6787538528442383</v>
       </c>
       <c r="D40">
-        <v>0.3408740162849426</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.34087401628494263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>4.935542583465576</v>
+        <v>4.9355425834655762</v>
       </c>
       <c r="C41">
-        <v>4.891116619110107</v>
+        <v>4.8911166191101074</v>
       </c>
       <c r="D41">
         <v>0.344186931848526</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>4.498791217803955</v>
+        <v>4.4987912178039551</v>
       </c>
       <c r="C42">
         <v>3.597295761108398</v>
       </c>
       <c r="D42">
-        <v>0.3359747529029846</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.33597475290298462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>5.623474597930908</v>
+        <v>5.6234745979309082</v>
       </c>
       <c r="C43">
-        <v>5.220952987670898</v>
+        <v>5.2209529876708984</v>
       </c>
       <c r="D43">
         <v>0.2932661771774292</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>2.301535367965698</v>
+        <v>2.3015353679656978</v>
       </c>
       <c r="C44">
-        <v>4.652586460113525</v>
+        <v>4.6525864601135254</v>
       </c>
       <c r="D44">
         <v>0.236572340130806</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>5.583185195922852</v>
+        <v>5.5831851959228516</v>
       </c>
       <c r="C45">
-        <v>6.989462375640869</v>
+        <v>6.9894623756408691</v>
       </c>
       <c r="D45">
-        <v>0.3375728726387024</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.33757287263870239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>4.245152473449707</v>
       </c>
       <c r="C46">
-        <v>6.608887195587158</v>
+        <v>6.6088871955871582</v>
       </c>
       <c r="D46">
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>5.132223606109619</v>
+        <v>5.1322236061096191</v>
       </c>
       <c r="C47">
         <v>7.716590404510498</v>
       </c>
       <c r="D47">
-        <v>0.4100311100482941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.41003111004829412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>6.112066268920898</v>
+        <v>6.1120662689208984</v>
       </c>
       <c r="C48">
-        <v>5.283431053161621</v>
+        <v>5.2834310531616211</v>
       </c>
       <c r="D48">
-        <v>0.3812668323516846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.38126683235168463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>5.660599231719971</v>
+        <v>5.6605992317199707</v>
       </c>
       <c r="C49">
-        <v>4.516687393188477</v>
+        <v>4.5166873931884766</v>
       </c>
       <c r="D49">
-        <v>0.4234573543071747</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.42345735430717468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>5.580741405487061</v>
+        <v>5.5807414054870614</v>
       </c>
       <c r="C50">
-        <v>5.306547164916992</v>
+        <v>5.3065471649169922</v>
       </c>
       <c r="D50">
-        <v>0.373454213142395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.37345421314239502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>6.707770824432373</v>
       </c>
       <c r="C51">
-        <v>8.002002716064453</v>
+        <v>8.0020027160644531</v>
       </c>
       <c r="D51">
-        <v>0.3769043385982513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.37690433859825129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>6.15508508682251</v>
+        <v>6.1550850868225098</v>
       </c>
       <c r="C52">
-        <v>4.753736972808838</v>
+        <v>4.7537369728088379</v>
       </c>
       <c r="D52">
-        <v>0.3706818819046021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.37068188190460211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>5.630048274993896</v>
+        <v>5.6300482749938956</v>
       </c>
       <c r="C53">
-        <v>4.205326557159424</v>
+        <v>4.2053265571594238</v>
       </c>
       <c r="D53">
-        <v>0.3733656406402588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.37336564064025879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>5.339273929595947</v>
+        <v>5.3392739295959473</v>
       </c>
       <c r="C54">
-        <v>4.924524784088135</v>
+        <v>4.9245247840881348</v>
       </c>
       <c r="D54">
-        <v>0.333817183971405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.33381718397140497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>5.749731063842773</v>
+        <v>5.7497310638427734</v>
       </c>
       <c r="C55">
         <v>6.351038932800293</v>
       </c>
       <c r="D55">
-        <v>0.3036462068557739</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.30364620685577393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>6.221390724182129</v>
+        <v>6.2213907241821289</v>
       </c>
       <c r="C56">
-        <v>6.08199405670166</v>
+        <v>6.0819940567016602</v>
       </c>
       <c r="D56">
         <v>0.3219236433506012</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>6.478250503540039</v>
+        <v>6.4782505035400391</v>
       </c>
       <c r="C57">
-        <v>5.331467151641846</v>
+        <v>5.3314671516418457</v>
       </c>
       <c r="D57">
-        <v>0.3197847902774811</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.31978479027748108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>5.972925186157227</v>
+        <v>5.9729251861572266</v>
       </c>
       <c r="C58">
-        <v>6.603087902069092</v>
+        <v>6.6030879020690918</v>
       </c>
       <c r="D58">
-        <v>0.3277115225791931</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.32771152257919312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>7.480020046234131</v>
+        <v>7.4800200462341309</v>
       </c>
       <c r="C59">
-        <v>5.899258613586426</v>
+        <v>5.8992586135864258</v>
       </c>
       <c r="D59">
         <v>0.2726554274559021</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>4.406347274780273</v>
+        <v>4.4063472747802734</v>
       </c>
       <c r="C60">
         <v>7.528627872467041</v>
       </c>
       <c r="D60">
-        <v>0.3596772253513336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.35967722535133362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>9.91279411315918</v>
+        <v>9.9127941131591797</v>
       </c>
       <c r="C61">
-        <v>4.514590263366699</v>
+        <v>4.5145902633666992</v>
       </c>
       <c r="D61">
-        <v>0.3011696636676788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.30116966366767878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>5.166973114013672</v>
+        <v>5.1669731140136719</v>
       </c>
       <c r="C62">
-        <v>5.838175773620605</v>
+        <v>5.8381757736206046</v>
       </c>
       <c r="D62">
-        <v>0.36644446849823</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.36644446849822998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>5.230826854705811</v>
+        <v>5.2308268547058114</v>
       </c>
       <c r="C63">
-        <v>4.451005935668945</v>
+        <v>4.4510059356689453</v>
       </c>
       <c r="D63">
         <v>0.3781430721282959</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>5.290462493896484</v>
+        <v>5.2904624938964844</v>
       </c>
       <c r="C64">
-        <v>4.664374351501465</v>
+        <v>4.6643743515014648</v>
       </c>
       <c r="D64">
-        <v>0.4194046258926392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.41940462589263922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>5.730003356933594</v>
+        <v>5.7300033569335938</v>
       </c>
       <c r="C65">
-        <v>4.891003131866455</v>
+        <v>4.8910031318664551</v>
       </c>
       <c r="D65">
-        <v>0.3554157316684723</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.35541573166847229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>5.370428562164307</v>
+        <v>5.3704285621643066</v>
       </c>
       <c r="C66">
-        <v>7.235403060913086</v>
+        <v>7.2354030609130859</v>
       </c>
       <c r="D66">
-        <v>0.2906824946403503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.29068249464035029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>12.95175552368164</v>
+        <v>12.951755523681641</v>
       </c>
       <c r="C67">
-        <v>5.689891338348389</v>
+        <v>5.6898913383483887</v>
       </c>
       <c r="D67">
-        <v>0.3096528649330139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.30965286493301392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>6.360820770263672</v>
+        <v>6.3608207702636719</v>
       </c>
       <c r="C68">
-        <v>6.090678215026855</v>
+        <v>6.0906782150268546</v>
       </c>
       <c r="D68">
-        <v>0.3704864382743835</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.37048643827438349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>7.96500825881958</v>
+        <v>7.9650082588195801</v>
       </c>
       <c r="C69">
         <v>4.911862850189209</v>
       </c>
       <c r="D69">
-        <v>0.3966734409332275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.39667344093322748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>4.250652313232422</v>
+        <v>4.2506523132324219</v>
       </c>
       <c r="C70">
-        <v>6.362209796905518</v>
+        <v>6.3622097969055176</v>
       </c>
       <c r="D70">
-        <v>0.3095044791698456</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.30950447916984558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>5.843636989593506</v>
+        <v>5.8436369895935059</v>
       </c>
       <c r="C71">
-        <v>6.3950514793396</v>
+        <v>6.3950514793395996</v>
       </c>
       <c r="D71">
-        <v>0.3068302571773529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.30683025717735291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>4.046530723571777</v>
+        <v>4.0465307235717773</v>
       </c>
       <c r="C72">
-        <v>5.187109470367432</v>
+        <v>5.1871094703674316</v>
       </c>
       <c r="D72">
         <v>0.2647155225276947</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>5.270711898803711</v>
+        <v>5.2707118988037109</v>
       </c>
       <c r="C73">
-        <v>4.873144626617432</v>
+        <v>4.8731446266174316</v>
       </c>
       <c r="D73">
         <v>0.330771803855896</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>3.884877920150757</v>
+        <v>3.8848779201507568</v>
       </c>
       <c r="C74">
-        <v>5.243360042572021</v>
+        <v>5.2433600425720206</v>
       </c>
       <c r="D74">
-        <v>0.337017834186554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.33701783418655401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>4.839993000030518</v>
+        <v>4.8399930000305176</v>
       </c>
       <c r="C75">
-        <v>5.868420600891113</v>
+        <v>5.8684206008911133</v>
       </c>
       <c r="D75">
-        <v>0.3480062782764435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.34800627827644348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>4.654484272003174</v>
+        <v>4.6544842720031738</v>
       </c>
       <c r="C76">
-        <v>4.035756587982178</v>
+        <v>4.0357565879821777</v>
       </c>
       <c r="D76">
-        <v>0.3363209962844849</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.33632099628448492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>5.920559406280518</v>
+        <v>5.9205594062805176</v>
       </c>
       <c r="C77">
-        <v>6.01713752746582</v>
+        <v>6.0171375274658203</v>
       </c>
       <c r="D77">
-        <v>0.2895272672176361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.28952726721763611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>2.980057239532471</v>
+        <v>2.9800572395324711</v>
       </c>
       <c r="C78">
-        <v>4.939810276031494</v>
+        <v>4.9398102760314941</v>
       </c>
       <c r="D78">
         <v>0.2358774542808533</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>5.829738140106201</v>
+        <v>5.8297381401062012</v>
       </c>
       <c r="C79">
-        <v>7.067496299743652</v>
+        <v>7.0674962997436523</v>
       </c>
       <c r="D79">
-        <v>0.3393122851848602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.33931228518486017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>4.551772594451904</v>
+        <v>4.5517725944519043</v>
       </c>
       <c r="C80">
-        <v>6.858017921447754</v>
+        <v>6.8580179214477539</v>
       </c>
       <c r="D80">
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>5.259050369262695</v>
+        <v>5.2590503692626953</v>
       </c>
       <c r="C81">
-        <v>7.549854755401611</v>
+        <v>7.5498547554016113</v>
       </c>
       <c r="D81">
-        <v>0.4118618071079254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.41186180710792542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>6.426774501800537</v>
+        <v>6.4267745018005371</v>
       </c>
       <c r="C82">
-        <v>5.307456493377686</v>
+        <v>5.3074564933776864</v>
       </c>
       <c r="D82">
-        <v>0.3867176175117493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.38671761751174932</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>6.138195514678955</v>
+        <v>6.1381955146789551</v>
       </c>
       <c r="C83">
-        <v>4.721992969512939</v>
+        <v>4.7219929695129386</v>
       </c>
       <c r="D83">
         <v>0.4213249683380127</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>5.664237976074219</v>
+        <v>5.6642379760742188</v>
       </c>
       <c r="C84">
-        <v>5.313136577606201</v>
+        <v>5.3131365776062012</v>
       </c>
       <c r="D84">
-        <v>0.3710751831531525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.37107518315315252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>7.294056415557861</v>
+        <v>7.2940564155578613</v>
       </c>
       <c r="C85">
-        <v>7.856444835662842</v>
+        <v>7.8564448356628418</v>
       </c>
       <c r="D85">
-        <v>0.3787997364997864</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.37879973649978638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>6.246108531951904</v>
+        <v>6.2461085319519043</v>
       </c>
       <c r="C86">
-        <v>5.690417289733887</v>
+        <v>5.6904172897338867</v>
       </c>
       <c r="D86">
         <v>0.374471515417099</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>6.615844249725342</v>
+        <v>6.6158442497253418</v>
       </c>
       <c r="C87">
         <v>4.474358081817627</v>
       </c>
       <c r="D87">
-        <v>0.3744690418243408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.37446904182434082</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>5.878229141235352</v>
+        <v>5.8782291412353516</v>
       </c>
       <c r="C88">
-        <v>5.569009780883789</v>
+        <v>5.5690097808837891</v>
       </c>
       <c r="D88">
-        <v>0.3361071944236755</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.33610719442367548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>6.091305255889893</v>
+        <v>6.0913052558898926</v>
       </c>
       <c r="C89">
-        <v>6.391154289245605</v>
+        <v>6.3911542892456046</v>
       </c>
       <c r="D89">
         <v>0.2961181104183197</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>6.316288471221924</v>
+        <v>6.3162884712219238</v>
       </c>
       <c r="C90">
-        <v>6.651641368865967</v>
+        <v>6.6516413688659668</v>
       </c>
       <c r="D90">
-        <v>0.3178872466087341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.31788724660873408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>6.5207839012146</v>
+        <v>6.5207839012145996</v>
       </c>
       <c r="C91">
-        <v>5.599531650543213</v>
+        <v>5.5995316505432129</v>
       </c>
       <c r="D91">
-        <v>0.3239670395851135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.32396703958511353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>6.085877418518066</v>
+        <v>6.0858774185180664</v>
       </c>
       <c r="C92">
-        <v>6.916462421417236</v>
+        <v>6.9164624214172363</v>
       </c>
       <c r="D92">
-        <v>0.3276146352291107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.32761463522911072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>7.571521282196045</v>
+        <v>7.5715212821960449</v>
       </c>
       <c r="C93">
-        <v>6.075716972351074</v>
+        <v>6.0757169723510742</v>
       </c>
       <c r="D93">
-        <v>0.2710954248905182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.27109542489051819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>4.638813495635986</v>
+        <v>4.6388134956359863</v>
       </c>
       <c r="C94">
-        <v>7.878920555114746</v>
+        <v>7.8789205551147461</v>
       </c>
       <c r="D94">
-        <v>0.3564054071903229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.35640540719032288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>8.966200828552246</v>
+        <v>8.9662008285522461</v>
       </c>
       <c r="C95">
-        <v>5.240510940551758</v>
+        <v>5.2405109405517578</v>
       </c>
       <c r="D95">
         <v>0.3030586838722229</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>5.194782257080078</v>
+        <v>5.1947822570800781</v>
       </c>
       <c r="C96">
-        <v>6.396377086639404</v>
+        <v>6.3963770866394043</v>
       </c>
       <c r="D96">
-        <v>0.364614874124527</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.36461487412452698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>5.321974277496338</v>
+        <v>5.3219742774963379</v>
       </c>
       <c r="C97">
-        <v>4.959200859069824</v>
+        <v>4.9592008590698242</v>
       </c>
       <c r="D97">
-        <v>0.3817157447338104</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.38171574473381042</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>5.097452163696289</v>
+        <v>5.0974521636962891</v>
       </c>
       <c r="C98">
-        <v>5.365669727325439</v>
+        <v>5.3656697273254386</v>
       </c>
       <c r="D98">
-        <v>0.4216224849224091</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.42162248492240911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>5.587027072906494</v>
+        <v>5.5870270729064941</v>
       </c>
       <c r="C99">
-        <v>5.748311996459961</v>
+        <v>5.7483119964599609</v>
       </c>
       <c r="D99">
-        <v>0.3542141616344452</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.35421416163444519</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>5.49497652053833</v>
+        <v>5.4949765205383301</v>
       </c>
       <c r="C100">
         <v>7.540374755859375</v>
@@ -1783,124 +1814,124 @@
         <v>0.2935355007648468</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>10.72490882873535</v>
       </c>
       <c r="C101">
-        <v>6.228623867034912</v>
+        <v>6.2286238670349121</v>
       </c>
       <c r="D101">
         <v>0.3088211715221405</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>6.455643653869629</v>
+        <v>6.4556436538696289</v>
       </c>
       <c r="C102">
-        <v>6.364852905273438</v>
+        <v>6.3648529052734384</v>
       </c>
       <c r="D102">
-        <v>0.3701343238353729</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.37013432383537292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>7.51246166229248</v>
+        <v>7.5124616622924796</v>
       </c>
       <c r="C103">
-        <v>5.635428905487061</v>
+        <v>5.6354289054870614</v>
       </c>
       <c r="D103">
-        <v>0.3988346457481384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>0.39883464574813843</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>4.248473644256592</v>
+        <v>4.2484736442565918</v>
       </c>
       <c r="C104">
-        <v>6.94758939743042</v>
+        <v>6.9475893974304199</v>
       </c>
       <c r="D104">
-        <v>0.3114798069000244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>0.31147980690002441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>5.892818927764893</v>
+        <v>5.8928189277648926</v>
       </c>
       <c r="C105">
-        <v>7.150689125061035</v>
+        <v>7.1506891250610352</v>
       </c>
       <c r="D105">
         <v>0.3030681312084198</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>4.11578893661499</v>
+        <v>4.1157889366149902</v>
       </c>
       <c r="C106">
-        <v>5.185415267944336</v>
+        <v>5.1854152679443359</v>
       </c>
       <c r="D106">
-        <v>0.2651601135730743</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>0.26516011357307429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>5.329217910766602</v>
+        <v>5.3292179107666016</v>
       </c>
       <c r="C107">
-        <v>5.647542476654053</v>
+        <v>5.6475424766540527</v>
       </c>
       <c r="D107">
-        <v>0.3288718461990356</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>0.32887184619903559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>4.238781452178955</v>
+        <v>4.2387814521789551</v>
       </c>
       <c r="C108">
-        <v>5.845648765563965</v>
+        <v>5.8456487655639648</v>
       </c>
       <c r="D108">
-        <v>0.3338859975337982</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>0.33388599753379822</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>4.90494441986084</v>
+        <v>4.9049444198608398</v>
       </c>
       <c r="C109">
         <v>6.877927303314209</v>
@@ -1909,396 +1940,396 @@
         <v>0.3521895706653595</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>4.832639217376709</v>
       </c>
       <c r="C110">
-        <v>4.750733852386475</v>
+        <v>4.7507338523864746</v>
       </c>
       <c r="D110">
-        <v>0.3359727561473846</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>0.33597275614738459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>6.208635330200195</v>
+        <v>6.2086353302001953</v>
       </c>
       <c r="C111">
-        <v>6.888940811157227</v>
+        <v>6.8889408111572266</v>
       </c>
       <c r="D111">
-        <v>0.2859543859958649</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>0.28595438599586492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>3.691337823867798</v>
+        <v>3.6913378238677979</v>
       </c>
       <c r="C112">
-        <v>5.354777812957764</v>
+        <v>5.3547778129577637</v>
       </c>
       <c r="D112">
         <v>0.2351201921701431</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>6.090810298919678</v>
+        <v>6.0908102989196777</v>
       </c>
       <c r="C113">
-        <v>7.340596199035645</v>
+        <v>7.3405961990356454</v>
       </c>
       <c r="D113">
-        <v>0.3408536612987518</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>0.34085366129875178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>4.897335052490234</v>
+        <v>4.8973350524902344</v>
       </c>
       <c r="C114">
-        <v>7.327099800109863</v>
+        <v>7.3270998001098633</v>
       </c>
       <c r="D114">
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>5.436366081237793</v>
       </c>
       <c r="C115">
-        <v>7.551575183868408</v>
+        <v>7.5515751838684082</v>
       </c>
       <c r="D115">
-        <v>0.4147278964519501</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>0.41472789645195007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>6.62027645111084</v>
+        <v>6.6202764511108398</v>
       </c>
       <c r="C116">
-        <v>5.573085308074951</v>
+        <v>5.5730853080749512</v>
       </c>
       <c r="D116">
-        <v>0.3913411498069763</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>0.39134114980697632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>6.458294868469238</v>
+        <v>6.4582948684692383</v>
       </c>
       <c r="C117">
-        <v>5.057516098022461</v>
+        <v>5.0575160980224609</v>
       </c>
       <c r="D117">
-        <v>0.4186363220214844</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>0.41863632202148438</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>5.798186779022217</v>
+        <v>5.7981867790222168</v>
       </c>
       <c r="C118">
-        <v>5.467159748077393</v>
+        <v>5.4671597480773926</v>
       </c>
       <c r="D118">
-        <v>0.3700272440910339</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>0.37002724409103388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>7.508070945739746</v>
+        <v>7.5080709457397461</v>
       </c>
       <c r="C119">
-        <v>7.89663553237915</v>
+        <v>7.8966355323791504</v>
       </c>
       <c r="D119">
-        <v>0.3798497021198273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>0.37984970211982733</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>6.308072566986084</v>
       </c>
       <c r="C120">
-        <v>6.614818572998047</v>
+        <v>6.6148185729980469</v>
       </c>
       <c r="D120">
-        <v>0.3779137432575226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>0.37791374325752258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>7.130179882049561</v>
+        <v>7.1301798820495614</v>
       </c>
       <c r="C121">
-        <v>4.652929306030273</v>
+        <v>4.6529293060302734</v>
       </c>
       <c r="D121">
-        <v>0.3766058385372162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>0.37660583853721619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>6.119658470153809</v>
+        <v>6.1196584701538086</v>
       </c>
       <c r="C122">
-        <v>6.213210105895996</v>
+        <v>6.2132101058959961</v>
       </c>
       <c r="D122">
         <v>0.3373945951461792</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>6.287854671478271</v>
+        <v>6.2878546714782706</v>
       </c>
       <c r="C123">
-        <v>6.478347301483154</v>
+        <v>6.4783473014831543</v>
       </c>
       <c r="D123">
-        <v>0.2887156903743744</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>0.28871569037437439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>6.235656261444092</v>
+        <v>6.2356562614440918</v>
       </c>
       <c r="C124">
-        <v>7.302875518798828</v>
+        <v>7.3028755187988281</v>
       </c>
       <c r="D124">
         <v>0.3141472339630127</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>6.390208721160889</v>
+        <v>6.3902087211608887</v>
       </c>
       <c r="C125">
-        <v>5.816806793212891</v>
+        <v>5.8168067932128906</v>
       </c>
       <c r="D125">
         <v>0.3275943398475647</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>6.087618350982666</v>
       </c>
       <c r="C126">
-        <v>7.082277297973633</v>
+        <v>7.0822772979736328</v>
       </c>
       <c r="D126">
-        <v>0.327210009098053</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>0.32721000909805298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>7.350484371185303</v>
+        <v>7.3504843711853027</v>
       </c>
       <c r="C127">
-        <v>5.961830139160156</v>
+        <v>5.9618301391601563</v>
       </c>
       <c r="D127">
         <v>0.2701924741268158</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>4.956172466278076</v>
+        <v>4.9561724662780762</v>
       </c>
       <c r="C128">
-        <v>8.096225738525391</v>
+        <v>8.0962257385253906</v>
       </c>
       <c r="D128">
-        <v>0.3532989919185638</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>0.35329899191856379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>8.148164749145508</v>
+        <v>8.1481647491455078</v>
       </c>
       <c r="C129">
-        <v>5.901049613952637</v>
+        <v>5.9010496139526367</v>
       </c>
       <c r="D129">
-        <v>0.3037011623382568</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>0.30370116233825678</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>5.079397678375244</v>
+        <v>5.0793976783752441</v>
       </c>
       <c r="C130">
-        <v>6.626322746276855</v>
+        <v>6.6263227462768546</v>
       </c>
       <c r="D130">
-        <v>0.3635151982307434</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>0.36351519823074341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>5.379345417022705</v>
+        <v>5.3793454170227051</v>
       </c>
       <c r="C131">
-        <v>5.015840530395508</v>
+        <v>5.0158405303955078</v>
       </c>
       <c r="D131">
-        <v>0.3853388130664825</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>0.38533881306648249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>4.903731346130371</v>
+        <v>4.9037313461303711</v>
       </c>
       <c r="C132">
-        <v>5.871327877044678</v>
+        <v>5.8713278770446777</v>
       </c>
       <c r="D132">
-        <v>0.4233280122280121</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>0.42332801222801208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>5.440124988555908</v>
+        <v>5.4401249885559082</v>
       </c>
       <c r="C133">
-        <v>6.218059539794922</v>
+        <v>6.2180595397949219</v>
       </c>
       <c r="D133">
         <v>0.3540152907371521</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>5.506689548492432</v>
+        <v>5.5066895484924316</v>
       </c>
       <c r="C134">
-        <v>7.715893745422363</v>
+        <v>7.7158937454223633</v>
       </c>
       <c r="D134">
-        <v>0.2958509027957916</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>0.29585090279579163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>9.15785026550293</v>
+        <v>9.1578502655029297</v>
       </c>
       <c r="C135">
-        <v>6.631735801696777</v>
+        <v>6.6317358016967773</v>
       </c>
       <c r="D135">
-        <v>0.3074337542057037</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>0.30743375420570368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>6.387299537658691</v>
+        <v>6.3872995376586914</v>
       </c>
       <c r="C136">
-        <v>6.321666717529297</v>
+        <v>6.3216667175292969</v>
       </c>
       <c r="D136">
-        <v>0.3702610433101654</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>0.37026104331016541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>7.210488319396973</v>
+        <v>7.2104883193969727</v>
       </c>
       <c r="C137">
-        <v>6.05385684967041</v>
+        <v>6.0538568496704102</v>
       </c>
       <c r="D137">
-        <v>0.4013522863388062</v>
+        <v>0.40135228633880621</v>
       </c>
     </row>
   </sheetData>

--- a/x_prediction_3.xlsx
+++ b/x_prediction_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC36B3-78AA-410A-B7F9-58B444DD216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FFA3D-0BEE-4576-BFD2-BC79078152A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
   <si>
     <t>x1</t>
   </si>
@@ -42,13 +42,118 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>Aceh</t>
+  </si>
+  <si>
+    <t>Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Sumatera Barat</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Kepulauan Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>DKI Jakarta</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>Jawa Tengah</t>
+  </si>
+  <si>
+    <t>DI Yogyakarta</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Barat</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur</t>
+  </si>
+  <si>
+    <t>Kalimantan Barat</t>
+  </si>
+  <si>
+    <t>Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Kalimantan Utara</t>
+  </si>
+  <si>
+    <t>Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Sulawesi Tenggara</t>
+  </si>
+  <si>
+    <t>Gorontalo</t>
+  </si>
+  <si>
+    <t>Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Maluku</t>
+  </si>
+  <si>
+    <t>Maluku Utara</t>
+  </si>
+  <si>
+    <t>Papua Barat</t>
+  </si>
+  <si>
+    <t>Papua</t>
+  </si>
+  <si>
+    <t>province</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +168,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,17 +215,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{931F8287-ED21-4361-BE51-6FDC9546FE42}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,13 +532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,9 +550,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>4.4484243392944336</v>
@@ -442,9 +564,9 @@
         <v>0.30240219831466669</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>5.1064071655273438</v>
@@ -456,9 +578,9 @@
         <v>0.31409749388694758</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4.0730409622192383</v>
@@ -470,9 +592,9 @@
         <v>0.26706832647323608</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4.658531665802002</v>
@@ -484,9 +606,9 @@
         <v>0.32878988981246948</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3.6874620914459229</v>
@@ -498,9 +620,9 @@
         <v>0.34585019946098328</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>5.0802960395812988</v>
@@ -512,9 +634,9 @@
         <v>0.34076985716819758</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
         <v>4.3285651206970206</v>
@@ -526,9 +648,9 @@
         <v>0.33474111557006841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>5.2682061195373544</v>
@@ -540,9 +662,9 @@
         <v>0.29739287495613098</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2.4670875072479248</v>
@@ -554,9 +676,9 @@
         <v>0.2366654425859451</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
         <v>5.2722187042236328</v>
@@ -568,9 +690,9 @@
         <v>0.3364633321762085</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
         <v>4.0993900299072266</v>
@@ -582,9 +704,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
         <v>5.0288963317871094</v>
@@ -596,9 +718,9 @@
         <v>0.40960600972175598</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
         <v>5.6789021492004386</v>
@@ -610,9 +732,9 @@
         <v>0.37532514333724981</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
         <v>5.0865931510925293</v>
@@ -624,9 +746,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
         <v>5.2561616897583008</v>
@@ -638,9 +760,9 @@
         <v>0.37810149788856512</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>5.8734455108642578</v>
@@ -652,9 +774,9 @@
         <v>0.37373071908950811</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
         <v>6.0203714370727539</v>
@@ -666,9 +788,9 @@
         <v>0.3663966953754425</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>4.2437467575073242</v>
@@ -680,9 +802,9 @@
         <v>0.37351292371749878</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>4.337158203125</v>
@@ -694,9 +816,9 @@
         <v>0.33030503988265991</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>5.2311630249023438</v>
@@ -708,9 +830,9 @@
         <v>0.31157100200653082</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
         <v>5.842191219329834</v>
@@ -722,9 +844,9 @@
         <v>0.32574373483657842</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>6.0802693367004386</v>
@@ -736,9 +858,9 @@
         <v>0.31564828753471369</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
         <v>5.7494850158691406</v>
@@ -750,9 +872,9 @@
         <v>0.32702603936195368</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
         <v>6.6852970123291016</v>
@@ -764,9 +886,9 @@
         <v>0.27474889159202581</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>4.3266777992248544</v>
@@ -778,9 +900,9 @@
         <v>0.36376684904098511</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
         <v>10.83905506134033</v>
@@ -792,9 +914,9 @@
         <v>0.29723566770553589</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>4.7645688056945801</v>
@@ -806,9 +928,9 @@
         <v>0.36936596035957342</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>5.129481315612793</v>
@@ -820,9 +942,9 @@
         <v>0.37469109892845148</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>5.2427096366882324</v>
@@ -834,9 +956,9 @@
         <v>0.41637623310089111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>5.8045368194580078</v>
@@ -848,9 +970,9 @@
         <v>0.35774749517440801</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>4.9164152145385742</v>
@@ -862,9 +984,9 @@
         <v>0.28722968697547913</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
         <v>16.029935836791989</v>
@@ -876,9 +998,9 @@
         <v>0.31009644269943237</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>5.8254303932189941</v>
@@ -890,9 +1012,9 @@
         <v>0.3708406388759613</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>8.6052999496459961</v>
@@ -904,9 +1026,9 @@
         <v>0.39537414908409119</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B36">
         <v>4.3891339302062988</v>
@@ -918,9 +1040,9 @@
         <v>0.3065263032913208</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B37">
         <v>5.6552615165710449</v>
@@ -932,9 +1054,9 @@
         <v>0.31076076626777649</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B38">
         <v>4.2018857002258301</v>
@@ -946,9 +1068,9 @@
         <v>0.26495450735092158</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B39">
         <v>5.1282124519348136</v>
@@ -960,9 +1082,9 @@
         <v>0.33108067512512213</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B40">
         <v>3.6538040637969971</v>
@@ -974,9 +1096,9 @@
         <v>0.34087401628494263</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B41">
         <v>4.9355425834655762</v>
@@ -988,9 +1110,9 @@
         <v>0.344186931848526</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>41</v>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B42">
         <v>4.4987912178039551</v>
@@ -1002,9 +1124,9 @@
         <v>0.33597475290298462</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>42</v>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B43">
         <v>5.6234745979309082</v>
@@ -1016,9 +1138,9 @@
         <v>0.2932661771774292</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43</v>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B44">
         <v>2.3015353679656978</v>
@@ -1030,9 +1152,9 @@
         <v>0.236572340130806</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>44</v>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B45">
         <v>5.5831851959228516</v>
@@ -1044,9 +1166,9 @@
         <v>0.33757287263870239</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45</v>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B46">
         <v>4.245152473449707</v>
@@ -1058,9 +1180,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>46</v>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B47">
         <v>5.1322236061096191</v>
@@ -1072,9 +1194,9 @@
         <v>0.41003111004829412</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>47</v>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B48">
         <v>6.1120662689208984</v>
@@ -1086,9 +1208,9 @@
         <v>0.38126683235168463</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>48</v>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B49">
         <v>5.6605992317199707</v>
@@ -1100,9 +1222,9 @@
         <v>0.42345735430717468</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>49</v>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B50">
         <v>5.5807414054870614</v>
@@ -1114,9 +1236,9 @@
         <v>0.37345421314239502</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>50</v>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B51">
         <v>6.707770824432373</v>
@@ -1128,9 +1250,9 @@
         <v>0.37690433859825129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>51</v>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B52">
         <v>6.1550850868225098</v>
@@ -1142,9 +1264,9 @@
         <v>0.37068188190460211</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>52</v>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B53">
         <v>5.6300482749938956</v>
@@ -1156,9 +1278,9 @@
         <v>0.37336564064025879</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>53</v>
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B54">
         <v>5.3392739295959473</v>
@@ -1170,9 +1292,9 @@
         <v>0.33381718397140497</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>54</v>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B55">
         <v>5.7497310638427734</v>
@@ -1184,9 +1306,9 @@
         <v>0.30364620685577393</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>55</v>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B56">
         <v>6.2213907241821289</v>
@@ -1198,9 +1320,9 @@
         <v>0.3219236433506012</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>56</v>
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B57">
         <v>6.4782505035400391</v>
@@ -1212,9 +1334,9 @@
         <v>0.31978479027748108</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>57</v>
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B58">
         <v>5.9729251861572266</v>
@@ -1226,9 +1348,9 @@
         <v>0.32771152257919312</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>58</v>
+    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B59">
         <v>7.4800200462341309</v>
@@ -1240,9 +1362,9 @@
         <v>0.2726554274559021</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>59</v>
+    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B60">
         <v>4.4063472747802734</v>
@@ -1254,9 +1376,9 @@
         <v>0.35967722535133362</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>60</v>
+    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B61">
         <v>9.9127941131591797</v>
@@ -1268,9 +1390,9 @@
         <v>0.30116966366767878</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>61</v>
+    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B62">
         <v>5.1669731140136719</v>
@@ -1282,9 +1404,9 @@
         <v>0.36644446849822998</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>62</v>
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B63">
         <v>5.2308268547058114</v>
@@ -1296,9 +1418,9 @@
         <v>0.3781430721282959</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>63</v>
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B64">
         <v>5.2904624938964844</v>
@@ -1310,9 +1432,9 @@
         <v>0.41940462589263922</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>64</v>
+    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B65">
         <v>5.7300033569335938</v>
@@ -1324,9 +1446,9 @@
         <v>0.35541573166847229</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>65</v>
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B66">
         <v>5.3704285621643066</v>
@@ -1338,9 +1460,9 @@
         <v>0.29068249464035029</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>66</v>
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B67">
         <v>12.951755523681641</v>
@@ -1352,9 +1474,9 @@
         <v>0.30965286493301392</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>67</v>
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B68">
         <v>6.3608207702636719</v>
@@ -1366,9 +1488,9 @@
         <v>0.37048643827438349</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>68</v>
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B69">
         <v>7.9650082588195801</v>
@@ -1380,9 +1502,9 @@
         <v>0.39667344093322748</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>69</v>
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B70">
         <v>4.2506523132324219</v>
@@ -1394,9 +1516,9 @@
         <v>0.30950447916984558</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>70</v>
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B71">
         <v>5.8436369895935059</v>
@@ -1408,9 +1530,9 @@
         <v>0.30683025717735291</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>71</v>
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B72">
         <v>4.0465307235717773</v>
@@ -1422,9 +1544,9 @@
         <v>0.2647155225276947</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>72</v>
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B73">
         <v>5.2707118988037109</v>
@@ -1436,9 +1558,9 @@
         <v>0.330771803855896</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>73</v>
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B74">
         <v>3.8848779201507568</v>
@@ -1450,9 +1572,9 @@
         <v>0.33701783418655401</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>74</v>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B75">
         <v>4.8399930000305176</v>
@@ -1464,9 +1586,9 @@
         <v>0.34800627827644348</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>75</v>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B76">
         <v>4.6544842720031738</v>
@@ -1478,9 +1600,9 @@
         <v>0.33632099628448492</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>76</v>
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B77">
         <v>5.9205594062805176</v>
@@ -1492,9 +1614,9 @@
         <v>0.28952726721763611</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>77</v>
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B78">
         <v>2.9800572395324711</v>
@@ -1506,9 +1628,9 @@
         <v>0.2358774542808533</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>78</v>
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B79">
         <v>5.8297381401062012</v>
@@ -1520,9 +1642,9 @@
         <v>0.33931228518486017</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>79</v>
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B80">
         <v>4.5517725944519043</v>
@@ -1534,9 +1656,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>80</v>
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B81">
         <v>5.2590503692626953</v>
@@ -1548,9 +1670,9 @@
         <v>0.41186180710792542</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>81</v>
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B82">
         <v>6.4267745018005371</v>
@@ -1562,9 +1684,9 @@
         <v>0.38671761751174932</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>82</v>
+    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B83">
         <v>6.1381955146789551</v>
@@ -1576,9 +1698,9 @@
         <v>0.4213249683380127</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>83</v>
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B84">
         <v>5.6642379760742188</v>
@@ -1590,9 +1712,9 @@
         <v>0.37107518315315252</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>84</v>
+    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B85">
         <v>7.2940564155578613</v>
@@ -1604,9 +1726,9 @@
         <v>0.37879973649978638</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>85</v>
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B86">
         <v>6.2461085319519043</v>
@@ -1618,9 +1740,9 @@
         <v>0.374471515417099</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>86</v>
+    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B87">
         <v>6.6158442497253418</v>
@@ -1632,9 +1754,9 @@
         <v>0.37446904182434082</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>87</v>
+    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B88">
         <v>5.8782291412353516</v>
@@ -1646,9 +1768,9 @@
         <v>0.33610719442367548</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>88</v>
+    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B89">
         <v>6.0913052558898926</v>
@@ -1660,9 +1782,9 @@
         <v>0.2961181104183197</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>89</v>
+    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B90">
         <v>6.3162884712219238</v>
@@ -1674,9 +1796,9 @@
         <v>0.31788724660873408</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>90</v>
+    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B91">
         <v>6.5207839012145996</v>
@@ -1688,9 +1810,9 @@
         <v>0.32396703958511353</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>91</v>
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B92">
         <v>6.0858774185180664</v>
@@ -1702,9 +1824,9 @@
         <v>0.32761463522911072</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>92</v>
+    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B93">
         <v>7.5715212821960449</v>
@@ -1716,9 +1838,9 @@
         <v>0.27109542489051819</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>93</v>
+    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B94">
         <v>4.6388134956359863</v>
@@ -1730,9 +1852,9 @@
         <v>0.35640540719032288</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>94</v>
+    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B95">
         <v>8.9662008285522461</v>
@@ -1744,9 +1866,9 @@
         <v>0.3030586838722229</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>95</v>
+    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B96">
         <v>5.1947822570800781</v>
@@ -1758,9 +1880,9 @@
         <v>0.36461487412452698</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>96</v>
+    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B97">
         <v>5.3219742774963379</v>
@@ -1772,9 +1894,9 @@
         <v>0.38171574473381042</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>97</v>
+    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B98">
         <v>5.0974521636962891</v>
@@ -1786,9 +1908,9 @@
         <v>0.42162248492240911</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>98</v>
+    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B99">
         <v>5.5870270729064941</v>
@@ -1800,9 +1922,9 @@
         <v>0.35421416163444519</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>99</v>
+    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B100">
         <v>5.4949765205383301</v>
@@ -1814,9 +1936,9 @@
         <v>0.2935355007648468</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>100</v>
+    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B101">
         <v>10.72490882873535</v>
@@ -1828,9 +1950,9 @@
         <v>0.3088211715221405</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>101</v>
+    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B102">
         <v>6.4556436538696289</v>
@@ -1842,9 +1964,9 @@
         <v>0.37013432383537292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>102</v>
+    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B103">
         <v>7.5124616622924796</v>
@@ -1856,9 +1978,9 @@
         <v>0.39883464574813843</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>103</v>
+    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B104">
         <v>4.2484736442565918</v>
@@ -1870,9 +1992,9 @@
         <v>0.31147980690002441</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>104</v>
+    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B105">
         <v>5.8928189277648926</v>
@@ -1884,9 +2006,9 @@
         <v>0.3030681312084198</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>105</v>
+    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B106">
         <v>4.1157889366149902</v>
@@ -1898,9 +2020,9 @@
         <v>0.26516011357307429</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>106</v>
+    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B107">
         <v>5.3292179107666016</v>
@@ -1912,9 +2034,9 @@
         <v>0.32887184619903559</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>107</v>
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B108">
         <v>4.2387814521789551</v>
@@ -1926,9 +2048,9 @@
         <v>0.33388599753379822</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>108</v>
+    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B109">
         <v>4.9049444198608398</v>
@@ -1940,9 +2062,9 @@
         <v>0.3521895706653595</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>109</v>
+    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B110">
         <v>4.832639217376709</v>
@@ -1954,9 +2076,9 @@
         <v>0.33597275614738459</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>110</v>
+    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B111">
         <v>6.2086353302001953</v>
@@ -1968,9 +2090,9 @@
         <v>0.28595438599586492</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>111</v>
+    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B112">
         <v>3.6913378238677979</v>
@@ -1982,9 +2104,9 @@
         <v>0.2351201921701431</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>112</v>
+    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B113">
         <v>6.0908102989196777</v>
@@ -1996,9 +2118,9 @@
         <v>0.34085366129875178</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>113</v>
+    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B114">
         <v>4.8973350524902344</v>
@@ -2010,9 +2132,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>114</v>
+    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B115">
         <v>5.436366081237793</v>
@@ -2024,9 +2146,9 @@
         <v>0.41472789645195007</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>115</v>
+    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B116">
         <v>6.6202764511108398</v>
@@ -2038,9 +2160,9 @@
         <v>0.39134114980697632</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>116</v>
+    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B117">
         <v>6.4582948684692383</v>
@@ -2052,9 +2174,9 @@
         <v>0.41863632202148438</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>117</v>
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B118">
         <v>5.7981867790222168</v>
@@ -2066,9 +2188,9 @@
         <v>0.37002724409103388</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>118</v>
+    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B119">
         <v>7.5080709457397461</v>
@@ -2080,9 +2202,9 @@
         <v>0.37984970211982733</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>119</v>
+    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B120">
         <v>6.308072566986084</v>
@@ -2094,9 +2216,9 @@
         <v>0.37791374325752258</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>120</v>
+    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B121">
         <v>7.1301798820495614</v>
@@ -2108,9 +2230,9 @@
         <v>0.37660583853721619</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>121</v>
+    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B122">
         <v>6.1196584701538086</v>
@@ -2122,9 +2244,9 @@
         <v>0.3373945951461792</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>122</v>
+    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B123">
         <v>6.2878546714782706</v>
@@ -2136,9 +2258,9 @@
         <v>0.28871569037437439</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>123</v>
+    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B124">
         <v>6.2356562614440918</v>
@@ -2150,9 +2272,9 @@
         <v>0.3141472339630127</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>124</v>
+    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B125">
         <v>6.3902087211608887</v>
@@ -2164,9 +2286,9 @@
         <v>0.3275943398475647</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>125</v>
+    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B126">
         <v>6.087618350982666</v>
@@ -2178,9 +2300,9 @@
         <v>0.32721000909805298</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>126</v>
+    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B127">
         <v>7.3504843711853027</v>
@@ -2192,9 +2314,9 @@
         <v>0.2701924741268158</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>127</v>
+    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B128">
         <v>4.9561724662780762</v>
@@ -2206,9 +2328,9 @@
         <v>0.35329899191856379</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>128</v>
+    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B129">
         <v>8.1481647491455078</v>
@@ -2220,9 +2342,9 @@
         <v>0.30370116233825678</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>129</v>
+    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B130">
         <v>5.0793976783752441</v>
@@ -2234,9 +2356,9 @@
         <v>0.36351519823074341</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>130</v>
+    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B131">
         <v>5.3793454170227051</v>
@@ -2248,9 +2370,9 @@
         <v>0.38533881306648249</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>131</v>
+    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B132">
         <v>4.9037313461303711</v>
@@ -2262,9 +2384,9 @@
         <v>0.42332801222801208</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>132</v>
+    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B133">
         <v>5.4401249885559082</v>
@@ -2276,9 +2398,9 @@
         <v>0.3540152907371521</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>133</v>
+    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B134">
         <v>5.5066895484924316</v>
@@ -2290,9 +2412,9 @@
         <v>0.29585090279579163</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>134</v>
+    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B135">
         <v>9.1578502655029297</v>
@@ -2304,9 +2426,9 @@
         <v>0.30743375420570368</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>135</v>
+    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B136">
         <v>6.3872995376586914</v>
@@ -2318,9 +2440,9 @@
         <v>0.37026104331016541</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>136</v>
+    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B137">
         <v>7.2104883193969727</v>

--- a/x_prediction_3.xlsx
+++ b/x_prediction_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FFA3D-0BEE-4576-BFD2-BC79078152A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B0062-90A2-4786-809C-B5E76EAA2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,116 +44,116 @@
     <t>x3</t>
   </si>
   <si>
-    <t>Aceh</t>
-  </si>
-  <si>
-    <t>Sumatera Utara</t>
-  </si>
-  <si>
-    <t>Sumatera Barat</t>
-  </si>
-  <si>
-    <t>Riau</t>
-  </si>
-  <si>
-    <t>Jambi</t>
-  </si>
-  <si>
-    <t>Sumatera Selatan</t>
-  </si>
-  <si>
-    <t>Bengkulu</t>
-  </si>
-  <si>
-    <t>Lampung</t>
-  </si>
-  <si>
-    <t>Kepulauan Bangka Belitung</t>
-  </si>
-  <si>
-    <t>Kepulauan Riau</t>
-  </si>
-  <si>
-    <t>DKI Jakarta</t>
-  </si>
-  <si>
-    <t>Jawa Barat</t>
-  </si>
-  <si>
-    <t>Jawa Tengah</t>
-  </si>
-  <si>
-    <t>DI Yogyakarta</t>
-  </si>
-  <si>
-    <t>Jawa Timur</t>
-  </si>
-  <si>
-    <t>Banten</t>
-  </si>
-  <si>
-    <t>Bali</t>
-  </si>
-  <si>
-    <t>Nusa Tenggara Barat</t>
-  </si>
-  <si>
-    <t>Nusa Tenggara Timur</t>
-  </si>
-  <si>
-    <t>Kalimantan Barat</t>
-  </si>
-  <si>
-    <t>Kalimantan Tengah</t>
-  </si>
-  <si>
-    <t>Kalimantan Selatan</t>
-  </si>
-  <si>
-    <t>Kalimantan Timur</t>
-  </si>
-  <si>
-    <t>Kalimantan Utara</t>
-  </si>
-  <si>
-    <t>Sulawesi Utara</t>
-  </si>
-  <si>
-    <t>Sulawesi Tengah</t>
-  </si>
-  <si>
-    <t>Sulawesi Selatan</t>
-  </si>
-  <si>
-    <t>Sulawesi Tenggara</t>
-  </si>
-  <si>
-    <t>Gorontalo</t>
-  </si>
-  <si>
-    <t>Sulawesi Barat</t>
-  </si>
-  <si>
-    <t>Maluku</t>
-  </si>
-  <si>
-    <t>Maluku Utara</t>
-  </si>
-  <si>
-    <t>Papua Barat</t>
-  </si>
-  <si>
-    <t>Papua</t>
-  </si>
-  <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>DAERAH ISTIMEWA YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +175,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,12 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,13 +525,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -550,9 +545,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>4.4484243392944336</v>
@@ -564,9 +559,9 @@
         <v>0.30240219831466669</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>5.1064071655273438</v>
@@ -578,9 +573,9 @@
         <v>0.31409749388694758</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4.0730409622192383</v>
@@ -592,9 +587,9 @@
         <v>0.26706832647323608</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>4.658531665802002</v>
@@ -606,9 +601,9 @@
         <v>0.32878988981246948</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3.6874620914459229</v>
@@ -620,9 +615,9 @@
         <v>0.34585019946098328</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>5.0802960395812988</v>
@@ -634,9 +629,9 @@
         <v>0.34076985716819758</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>4.3285651206970206</v>
@@ -648,9 +643,9 @@
         <v>0.33474111557006841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5.2682061195373544</v>
@@ -662,9 +657,9 @@
         <v>0.29739287495613098</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2.4670875072479248</v>
@@ -676,9 +671,9 @@
         <v>0.2366654425859451</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>5.2722187042236328</v>
@@ -690,9 +685,9 @@
         <v>0.3364633321762085</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>4.0993900299072266</v>
@@ -704,9 +699,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
         <v>5.0288963317871094</v>
@@ -718,9 +713,9 @@
         <v>0.40960600972175598</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
         <v>5.6789021492004386</v>
@@ -732,9 +727,9 @@
         <v>0.37532514333724981</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="B15">
         <v>5.0865931510925293</v>
@@ -746,9 +741,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
         <v>5.2561616897583008</v>
@@ -760,9 +755,9 @@
         <v>0.37810149788856512</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
         <v>5.8734455108642578</v>
@@ -774,9 +769,9 @@
         <v>0.37373071908950811</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18">
         <v>6.0203714370727539</v>
@@ -788,9 +783,9 @@
         <v>0.3663966953754425</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
       <c r="B19">
         <v>4.2437467575073242</v>
@@ -802,9 +797,9 @@
         <v>0.37351292371749878</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20">
         <v>4.337158203125</v>
@@ -816,9 +811,9 @@
         <v>0.33030503988265991</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21">
         <v>5.2311630249023438</v>
@@ -830,9 +825,9 @@
         <v>0.31157100200653082</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
         <v>5.842191219329834</v>
@@ -844,9 +839,9 @@
         <v>0.32574373483657842</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
       </c>
       <c r="B23">
         <v>6.0802693367004386</v>
@@ -858,9 +853,9 @@
         <v>0.31564828753471369</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
       </c>
       <c r="B24">
         <v>5.7494850158691406</v>
@@ -872,9 +867,9 @@
         <v>0.32702603936195368</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
       <c r="B25">
         <v>6.6852970123291016</v>
@@ -886,9 +881,9 @@
         <v>0.27474889159202581</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
       </c>
       <c r="B26">
         <v>4.3266777992248544</v>
@@ -900,9 +895,9 @@
         <v>0.36376684904098511</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
       </c>
       <c r="B27">
         <v>10.83905506134033</v>
@@ -914,9 +909,9 @@
         <v>0.29723566770553589</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
       </c>
       <c r="B28">
         <v>4.7645688056945801</v>
@@ -928,9 +923,9 @@
         <v>0.36936596035957342</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
         <v>5.129481315612793</v>
@@ -942,9 +937,9 @@
         <v>0.37469109892845148</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
         <v>5.2427096366882324</v>
@@ -956,9 +951,9 @@
         <v>0.41637623310089111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
         <v>5.8045368194580078</v>
@@ -970,9 +965,9 @@
         <v>0.35774749517440801</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
       </c>
       <c r="B32">
         <v>4.9164152145385742</v>
@@ -984,9 +979,9 @@
         <v>0.28722968697547913</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
       </c>
       <c r="B33">
         <v>16.029935836791989</v>
@@ -998,9 +993,9 @@
         <v>0.31009644269943237</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
       </c>
       <c r="B34">
         <v>5.8254303932189941</v>
@@ -1012,9 +1007,9 @@
         <v>0.3708406388759613</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
       <c r="B35">
         <v>8.6052999496459961</v>
@@ -1026,9 +1021,9 @@
         <v>0.39537414908409119</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
       </c>
       <c r="B36">
         <v>4.3891339302062988</v>
@@ -1040,9 +1035,9 @@
         <v>0.3065263032913208</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
       </c>
       <c r="B37">
         <v>5.6552615165710449</v>
@@ -1054,9 +1049,9 @@
         <v>0.31076076626777649</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
       </c>
       <c r="B38">
         <v>4.2018857002258301</v>
@@ -1068,9 +1063,9 @@
         <v>0.26495450735092158</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
       </c>
       <c r="B39">
         <v>5.1282124519348136</v>
@@ -1082,9 +1077,9 @@
         <v>0.33108067512512213</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>7</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
       </c>
       <c r="B40">
         <v>3.6538040637969971</v>
@@ -1096,9 +1091,9 @@
         <v>0.34087401628494263</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
       </c>
       <c r="B41">
         <v>4.9355425834655762</v>
@@ -1110,9 +1105,9 @@
         <v>0.344186931848526</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>9</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
       </c>
       <c r="B42">
         <v>4.4987912178039551</v>
@@ -1124,9 +1119,9 @@
         <v>0.33597475290298462</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
       </c>
       <c r="B43">
         <v>5.6234745979309082</v>
@@ -1138,9 +1133,9 @@
         <v>0.2932661771774292</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
       </c>
       <c r="B44">
         <v>2.3015353679656978</v>
@@ -1152,9 +1147,9 @@
         <v>0.236572340130806</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
       </c>
       <c r="B45">
         <v>5.5831851959228516</v>
@@ -1166,9 +1161,9 @@
         <v>0.33757287263870239</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>13</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
       </c>
       <c r="B46">
         <v>4.245152473449707</v>
@@ -1180,9 +1175,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>15</v>
       </c>
       <c r="B47">
         <v>5.1322236061096191</v>
@@ -1194,9 +1189,9 @@
         <v>0.41003111004829412</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>15</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
       </c>
       <c r="B48">
         <v>6.1120662689208984</v>
@@ -1208,9 +1203,9 @@
         <v>0.38126683235168463</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>16</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
       </c>
       <c r="B49">
         <v>5.6605992317199707</v>
@@ -1222,9 +1217,9 @@
         <v>0.42345735430717468</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>17</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>18</v>
       </c>
       <c r="B50">
         <v>5.5807414054870614</v>
@@ -1236,9 +1231,9 @@
         <v>0.37345421314239502</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>18</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>19</v>
       </c>
       <c r="B51">
         <v>6.707770824432373</v>
@@ -1250,9 +1245,9 @@
         <v>0.37690433859825129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>19</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>20</v>
       </c>
       <c r="B52">
         <v>6.1550850868225098</v>
@@ -1264,9 +1259,9 @@
         <v>0.37068188190460211</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>20</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
       </c>
       <c r="B53">
         <v>5.6300482749938956</v>
@@ -1278,9 +1273,9 @@
         <v>0.37336564064025879</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>21</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>22</v>
       </c>
       <c r="B54">
         <v>5.3392739295959473</v>
@@ -1292,9 +1287,9 @@
         <v>0.33381718397140497</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>22</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>23</v>
       </c>
       <c r="B55">
         <v>5.7497310638427734</v>
@@ -1306,9 +1301,9 @@
         <v>0.30364620685577393</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>23</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>24</v>
       </c>
       <c r="B56">
         <v>6.2213907241821289</v>
@@ -1320,9 +1315,9 @@
         <v>0.3219236433506012</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>24</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>25</v>
       </c>
       <c r="B57">
         <v>6.4782505035400391</v>
@@ -1334,9 +1329,9 @@
         <v>0.31978479027748108</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>25</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>26</v>
       </c>
       <c r="B58">
         <v>5.9729251861572266</v>
@@ -1348,9 +1343,9 @@
         <v>0.32771152257919312</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>27</v>
       </c>
       <c r="B59">
         <v>7.4800200462341309</v>
@@ -1362,9 +1357,9 @@
         <v>0.2726554274559021</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>27</v>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>28</v>
       </c>
       <c r="B60">
         <v>4.4063472747802734</v>
@@ -1376,9 +1371,9 @@
         <v>0.35967722535133362</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>28</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>29</v>
       </c>
       <c r="B61">
         <v>9.9127941131591797</v>
@@ -1390,9 +1385,9 @@
         <v>0.30116966366767878</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>29</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
       </c>
       <c r="B62">
         <v>5.1669731140136719</v>
@@ -1404,9 +1399,9 @@
         <v>0.36644446849822998</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>30</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>31</v>
       </c>
       <c r="B63">
         <v>5.2308268547058114</v>
@@ -1418,9 +1413,9 @@
         <v>0.3781430721282959</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>31</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
       </c>
       <c r="B64">
         <v>5.2904624938964844</v>
@@ -1432,9 +1427,9 @@
         <v>0.41940462589263922</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>32</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>33</v>
       </c>
       <c r="B65">
         <v>5.7300033569335938</v>
@@ -1446,9 +1441,9 @@
         <v>0.35541573166847229</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>33</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>34</v>
       </c>
       <c r="B66">
         <v>5.3704285621643066</v>
@@ -1460,9 +1455,9 @@
         <v>0.29068249464035029</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>34</v>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>35</v>
       </c>
       <c r="B67">
         <v>12.951755523681641</v>
@@ -1474,9 +1469,9 @@
         <v>0.30965286493301392</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>35</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>36</v>
       </c>
       <c r="B68">
         <v>6.3608207702636719</v>
@@ -1488,9 +1483,9 @@
         <v>0.37048643827438349</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>36</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>37</v>
       </c>
       <c r="B69">
         <v>7.9650082588195801</v>
@@ -1502,9 +1497,9 @@
         <v>0.39667344093322748</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>3</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>4</v>
       </c>
       <c r="B70">
         <v>4.2506523132324219</v>
@@ -1516,9 +1511,9 @@
         <v>0.30950447916984558</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>4</v>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
       </c>
       <c r="B71">
         <v>5.8436369895935059</v>
@@ -1530,9 +1525,9 @@
         <v>0.30683025717735291</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>5</v>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>6</v>
       </c>
       <c r="B72">
         <v>4.0465307235717773</v>
@@ -1544,9 +1539,9 @@
         <v>0.2647155225276947</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>6</v>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>7</v>
       </c>
       <c r="B73">
         <v>5.2707118988037109</v>
@@ -1558,9 +1553,9 @@
         <v>0.330771803855896</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>7</v>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>8</v>
       </c>
       <c r="B74">
         <v>3.8848779201507568</v>
@@ -1572,9 +1567,9 @@
         <v>0.33701783418655401</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>8</v>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
       </c>
       <c r="B75">
         <v>4.8399930000305176</v>
@@ -1586,9 +1581,9 @@
         <v>0.34800627827644348</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>9</v>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
       </c>
       <c r="B76">
         <v>4.6544842720031738</v>
@@ -1600,9 +1595,9 @@
         <v>0.33632099628448492</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>10</v>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>11</v>
       </c>
       <c r="B77">
         <v>5.9205594062805176</v>
@@ -1614,9 +1609,9 @@
         <v>0.28952726721763611</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>11</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>12</v>
       </c>
       <c r="B78">
         <v>2.9800572395324711</v>
@@ -1628,9 +1623,9 @@
         <v>0.2358774542808533</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>12</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
       </c>
       <c r="B79">
         <v>5.8297381401062012</v>
@@ -1642,9 +1637,9 @@
         <v>0.33931228518486017</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>13</v>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>14</v>
       </c>
       <c r="B80">
         <v>4.5517725944519043</v>
@@ -1656,9 +1651,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>14</v>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>15</v>
       </c>
       <c r="B81">
         <v>5.2590503692626953</v>
@@ -1670,9 +1665,9 @@
         <v>0.41186180710792542</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>15</v>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>16</v>
       </c>
       <c r="B82">
         <v>6.4267745018005371</v>
@@ -1684,9 +1679,9 @@
         <v>0.38671761751174932</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>16</v>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>17</v>
       </c>
       <c r="B83">
         <v>6.1381955146789551</v>
@@ -1698,9 +1693,9 @@
         <v>0.4213249683380127</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>17</v>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>18</v>
       </c>
       <c r="B84">
         <v>5.6642379760742188</v>
@@ -1712,9 +1707,9 @@
         <v>0.37107518315315252</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>18</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>19</v>
       </c>
       <c r="B85">
         <v>7.2940564155578613</v>
@@ -1726,9 +1721,9 @@
         <v>0.37879973649978638</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>19</v>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>20</v>
       </c>
       <c r="B86">
         <v>6.2461085319519043</v>
@@ -1740,9 +1735,9 @@
         <v>0.374471515417099</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>20</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>21</v>
       </c>
       <c r="B87">
         <v>6.6158442497253418</v>
@@ -1754,9 +1749,9 @@
         <v>0.37446904182434082</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>21</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>22</v>
       </c>
       <c r="B88">
         <v>5.8782291412353516</v>
@@ -1768,9 +1763,9 @@
         <v>0.33610719442367548</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>22</v>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>23</v>
       </c>
       <c r="B89">
         <v>6.0913052558898926</v>
@@ -1782,9 +1777,9 @@
         <v>0.2961181104183197</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>23</v>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>24</v>
       </c>
       <c r="B90">
         <v>6.3162884712219238</v>
@@ -1796,9 +1791,9 @@
         <v>0.31788724660873408</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>24</v>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>25</v>
       </c>
       <c r="B91">
         <v>6.5207839012145996</v>
@@ -1810,9 +1805,9 @@
         <v>0.32396703958511353</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>25</v>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>26</v>
       </c>
       <c r="B92">
         <v>6.0858774185180664</v>
@@ -1824,9 +1819,9 @@
         <v>0.32761463522911072</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>26</v>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>27</v>
       </c>
       <c r="B93">
         <v>7.5715212821960449</v>
@@ -1838,9 +1833,9 @@
         <v>0.27109542489051819</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>27</v>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>28</v>
       </c>
       <c r="B94">
         <v>4.6388134956359863</v>
@@ -1852,9 +1847,9 @@
         <v>0.35640540719032288</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>28</v>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>29</v>
       </c>
       <c r="B95">
         <v>8.9662008285522461</v>
@@ -1866,9 +1861,9 @@
         <v>0.3030586838722229</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>29</v>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
       </c>
       <c r="B96">
         <v>5.1947822570800781</v>
@@ -1880,9 +1875,9 @@
         <v>0.36461487412452698</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>30</v>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>31</v>
       </c>
       <c r="B97">
         <v>5.3219742774963379</v>
@@ -1894,9 +1889,9 @@
         <v>0.38171574473381042</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>31</v>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>32</v>
       </c>
       <c r="B98">
         <v>5.0974521636962891</v>
@@ -1908,9 +1903,9 @@
         <v>0.42162248492240911</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>32</v>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>33</v>
       </c>
       <c r="B99">
         <v>5.5870270729064941</v>
@@ -1922,9 +1917,9 @@
         <v>0.35421416163444519</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>33</v>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>34</v>
       </c>
       <c r="B100">
         <v>5.4949765205383301</v>
@@ -1936,9 +1931,9 @@
         <v>0.2935355007648468</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>34</v>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>35</v>
       </c>
       <c r="B101">
         <v>10.72490882873535</v>
@@ -1950,9 +1945,9 @@
         <v>0.3088211715221405</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>35</v>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>36</v>
       </c>
       <c r="B102">
         <v>6.4556436538696289</v>
@@ -1964,9 +1959,9 @@
         <v>0.37013432383537292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>36</v>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>37</v>
       </c>
       <c r="B103">
         <v>7.5124616622924796</v>
@@ -1978,9 +1973,9 @@
         <v>0.39883464574813843</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>3</v>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>4</v>
       </c>
       <c r="B104">
         <v>4.2484736442565918</v>
@@ -1992,9 +1987,9 @@
         <v>0.31147980690002441</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>4</v>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
       </c>
       <c r="B105">
         <v>5.8928189277648926</v>
@@ -2006,9 +2001,9 @@
         <v>0.3030681312084198</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>5</v>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>6</v>
       </c>
       <c r="B106">
         <v>4.1157889366149902</v>
@@ -2020,9 +2015,9 @@
         <v>0.26516011357307429</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>6</v>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
       </c>
       <c r="B107">
         <v>5.3292179107666016</v>
@@ -2034,9 +2029,9 @@
         <v>0.32887184619903559</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>7</v>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
       </c>
       <c r="B108">
         <v>4.2387814521789551</v>
@@ -2048,9 +2043,9 @@
         <v>0.33388599753379822</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>8</v>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>9</v>
       </c>
       <c r="B109">
         <v>4.9049444198608398</v>
@@ -2062,9 +2057,9 @@
         <v>0.3521895706653595</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>9</v>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
       </c>
       <c r="B110">
         <v>4.832639217376709</v>
@@ -2076,9 +2071,9 @@
         <v>0.33597275614738459</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>10</v>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>11</v>
       </c>
       <c r="B111">
         <v>6.2086353302001953</v>
@@ -2090,9 +2085,9 @@
         <v>0.28595438599586492</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>11</v>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>12</v>
       </c>
       <c r="B112">
         <v>3.6913378238677979</v>
@@ -2104,9 +2099,9 @@
         <v>0.2351201921701431</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>12</v>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>13</v>
       </c>
       <c r="B113">
         <v>6.0908102989196777</v>
@@ -2118,9 +2113,9 @@
         <v>0.34085366129875178</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>13</v>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>14</v>
       </c>
       <c r="B114">
         <v>4.8973350524902344</v>
@@ -2132,9 +2127,9 @@
         <v>0.4240507185459137</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>14</v>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>15</v>
       </c>
       <c r="B115">
         <v>5.436366081237793</v>
@@ -2146,9 +2141,9 @@
         <v>0.41472789645195007</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>15</v>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>16</v>
       </c>
       <c r="B116">
         <v>6.6202764511108398</v>
@@ -2160,9 +2155,9 @@
         <v>0.39134114980697632</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>16</v>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>17</v>
       </c>
       <c r="B117">
         <v>6.4582948684692383</v>
@@ -2174,9 +2169,9 @@
         <v>0.41863632202148438</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>17</v>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>18</v>
       </c>
       <c r="B118">
         <v>5.7981867790222168</v>
@@ -2188,9 +2183,9 @@
         <v>0.37002724409103388</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>18</v>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>19</v>
       </c>
       <c r="B119">
         <v>7.5080709457397461</v>
@@ -2202,9 +2197,9 @@
         <v>0.37984970211982733</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>19</v>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>20</v>
       </c>
       <c r="B120">
         <v>6.308072566986084</v>
@@ -2216,9 +2211,9 @@
         <v>0.37791374325752258</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>20</v>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>21</v>
       </c>
       <c r="B121">
         <v>7.1301798820495614</v>
@@ -2230,9 +2225,9 @@
         <v>0.37660583853721619</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>21</v>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>22</v>
       </c>
       <c r="B122">
         <v>6.1196584701538086</v>
@@ -2244,9 +2239,9 @@
         <v>0.3373945951461792</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>22</v>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>23</v>
       </c>
       <c r="B123">
         <v>6.2878546714782706</v>
@@ -2258,9 +2253,9 @@
         <v>0.28871569037437439</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>23</v>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>24</v>
       </c>
       <c r="B124">
         <v>6.2356562614440918</v>
@@ -2272,9 +2267,9 @@
         <v>0.3141472339630127</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>24</v>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>25</v>
       </c>
       <c r="B125">
         <v>6.3902087211608887</v>
@@ -2286,9 +2281,9 @@
         <v>0.3275943398475647</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>25</v>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>26</v>
       </c>
       <c r="B126">
         <v>6.087618350982666</v>
@@ -2300,9 +2295,9 @@
         <v>0.32721000909805298</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>26</v>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>27</v>
       </c>
       <c r="B127">
         <v>7.3504843711853027</v>
@@ -2314,9 +2309,9 @@
         <v>0.2701924741268158</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>27</v>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>28</v>
       </c>
       <c r="B128">
         <v>4.9561724662780762</v>
@@ -2328,9 +2323,9 @@
         <v>0.35329899191856379</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>28</v>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>29</v>
       </c>
       <c r="B129">
         <v>8.1481647491455078</v>
@@ -2342,9 +2337,9 @@
         <v>0.30370116233825678</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>29</v>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>30</v>
       </c>
       <c r="B130">
         <v>5.0793976783752441</v>
@@ -2356,9 +2351,9 @@
         <v>0.36351519823074341</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>30</v>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>31</v>
       </c>
       <c r="B131">
         <v>5.3793454170227051</v>
@@ -2370,9 +2365,9 @@
         <v>0.38533881306648249</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>31</v>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>32</v>
       </c>
       <c r="B132">
         <v>4.9037313461303711</v>
@@ -2384,9 +2379,9 @@
         <v>0.42332801222801208</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>32</v>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>33</v>
       </c>
       <c r="B133">
         <v>5.4401249885559082</v>
@@ -2398,9 +2393,9 @@
         <v>0.3540152907371521</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>33</v>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>34</v>
       </c>
       <c r="B134">
         <v>5.5066895484924316</v>
@@ -2412,9 +2407,9 @@
         <v>0.29585090279579163</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>34</v>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>35</v>
       </c>
       <c r="B135">
         <v>9.1578502655029297</v>
@@ -2426,9 +2421,9 @@
         <v>0.30743375420570368</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>35</v>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>36</v>
       </c>
       <c r="B136">
         <v>6.3872995376586914</v>
@@ -2440,9 +2435,9 @@
         <v>0.37026104331016541</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>36</v>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>37</v>
       </c>
       <c r="B137">
         <v>7.2104883193969727</v>

--- a/x_prediction_3.xlsx
+++ b/x_prediction_3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B0062-90A2-4786-809C-B5E76EAA2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7DCC2-002D-4CC5-8D7F-FFCE29AAE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>x1</t>
   </si>
@@ -148,12 +149,24 @@
   <si>
     <t>PAPUA</t>
   </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +189,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,15 +234,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
@@ -2452,4 +2513,1770 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A89C23-2E35-418A-9CF2-E95454541B2E}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4.4484243392944336</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.7194452285766602</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.30240219831466669</v>
+      </c>
+      <c r="E2" s="5">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.3891339302062988</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5.8793272972106934</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.3065263032913208</v>
+      </c>
+      <c r="I2" s="5">
+        <v>69</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4.2506523132324219</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6.3622097969055176</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.30950447916984558</v>
+      </c>
+      <c r="M2" s="5">
+        <v>103</v>
+      </c>
+      <c r="N2" s="4">
+        <v>4.2484736442565918</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6.9475893974304199</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.31147980690002441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.1064071655273438</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.6074695587158203</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.31409749388694758</v>
+      </c>
+      <c r="E3" s="5">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.6552615165710449</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.7867975234985352</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.31076076626777649</v>
+      </c>
+      <c r="I3" s="5">
+        <v>70</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5.8436369895935059</v>
+      </c>
+      <c r="K3" s="4">
+        <v>6.3950514793395996</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.30683025717735291</v>
+      </c>
+      <c r="M3" s="5">
+        <v>104</v>
+      </c>
+      <c r="N3" s="4">
+        <v>5.8928189277648926</v>
+      </c>
+      <c r="O3" s="4">
+        <v>7.1506891250610352</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.3030681312084198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.0730409622192383</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.6315112113952637</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.26706832647323608</v>
+      </c>
+      <c r="E4" s="5">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.2018857002258301</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.322390079498291</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.26495450735092158</v>
+      </c>
+      <c r="I4" s="5">
+        <v>71</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4.0465307235717773</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5.1871094703674316</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.2647155225276947</v>
+      </c>
+      <c r="M4" s="5">
+        <v>105</v>
+      </c>
+      <c r="N4" s="4">
+        <v>4.1157889366149902</v>
+      </c>
+      <c r="O4" s="4">
+        <v>5.1854152679443359</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.26516011357307429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.658531665802002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.1131348609924316</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.32878988981246948</v>
+      </c>
+      <c r="E5" s="5">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.1282124519348136</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.2702045440673828</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.33108067512512213</v>
+      </c>
+      <c r="I5" s="5">
+        <v>72</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5.2707118988037109</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4.8731446266174316</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.330771803855896</v>
+      </c>
+      <c r="M5" s="5">
+        <v>106</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5.3292179107666016</v>
+      </c>
+      <c r="O5" s="4">
+        <v>5.6475424766540527</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.32887184619903559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.6874620914459229</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.5012760162353516</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.34585019946098328</v>
+      </c>
+      <c r="E6" s="5">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.6538040637969971</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.6787538528442383</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.34087401628494263</v>
+      </c>
+      <c r="I6" s="5">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.8848779201507568</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5.2433600425720206</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.33701783418655401</v>
+      </c>
+      <c r="M6" s="5">
+        <v>107</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4.2387814521789551</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5.8456487655639648</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.33388599753379822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5.0802960395812988</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.2895464897155762</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.34076985716819758</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.9355425834655762</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.8911166191101074</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.344186931848526</v>
+      </c>
+      <c r="I7" s="5">
+        <v>74</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.8399930000305176</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5.8684206008911133</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.34800627827644348</v>
+      </c>
+      <c r="M7" s="5">
+        <v>108</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4.9049444198608398</v>
+      </c>
+      <c r="O7" s="4">
+        <v>6.877927303314209</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.3521895706653595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.3285651206970206</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.5290088653564449</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.33474111557006841</v>
+      </c>
+      <c r="E8" s="5">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.4987912178039551</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.597295761108398</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.33597475290298462</v>
+      </c>
+      <c r="I8" s="5">
+        <v>75</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4.6544842720031738</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.0357565879821777</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.33632099628448492</v>
+      </c>
+      <c r="M8" s="5">
+        <v>109</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4.832639217376709</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4.7507338523864746</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.33597275614738459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.2682061195373544</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.6833758354187012</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.29739287495613098</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5.6234745979309082</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.2209529876708984</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2932661771774292</v>
+      </c>
+      <c r="I9" s="5">
+        <v>76</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.9205594062805176</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6.0171375274658203</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.28952726721763611</v>
+      </c>
+      <c r="M9" s="5">
+        <v>110</v>
+      </c>
+      <c r="N9" s="4">
+        <v>6.2086353302001953</v>
+      </c>
+      <c r="O9" s="4">
+        <v>6.8889408111572266</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.28595438599586492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.4670875072479248</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.6951923370361328</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.2366654425859451</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.3015353679656978</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.6525864601135254</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.236572340130806</v>
+      </c>
+      <c r="I10" s="5">
+        <v>77</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.9800572395324711</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4.9398102760314941</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.2358774542808533</v>
+      </c>
+      <c r="M10" s="5">
+        <v>111</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3.6913378238677979</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5.3547778129577637</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.2351201921701431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.2722187042236328</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.9815192222595206</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.3364633321762085</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.5831851959228516</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.9894623756408691</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.33757287263870239</v>
+      </c>
+      <c r="I11" s="5">
+        <v>78</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.8297381401062012</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7.0674962997436523</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.33931228518486017</v>
+      </c>
+      <c r="M11" s="5">
+        <v>112</v>
+      </c>
+      <c r="N11" s="4">
+        <v>6.0908102989196777</v>
+      </c>
+      <c r="O11" s="4">
+        <v>7.3405961990356454</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.34085366129875178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.0993900299072266</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.4904928207397461</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.4240507185459137</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.245152473449707</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.6088871955871582</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.4240507185459137</v>
+      </c>
+      <c r="I12" s="5">
+        <v>79</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4.5517725944519043</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6.8580179214477539</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.4240507185459137</v>
+      </c>
+      <c r="M12" s="5">
+        <v>113</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4.8973350524902344</v>
+      </c>
+      <c r="O12" s="4">
+        <v>7.3270998001098633</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.4240507185459137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.0288963317871094</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.8059158325195313</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.40960600972175598</v>
+      </c>
+      <c r="E13" s="5">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.1322236061096191</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.716590404510498</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.41003111004829412</v>
+      </c>
+      <c r="I13" s="5">
+        <v>80</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5.2590503692626953</v>
+      </c>
+      <c r="K13" s="4">
+        <v>7.5498547554016113</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.41186180710792542</v>
+      </c>
+      <c r="M13" s="5">
+        <v>114</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5.436366081237793</v>
+      </c>
+      <c r="O13" s="4">
+        <v>7.5515751838684082</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.41472789645195007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5.6789021492004386</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.3994121551513672</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.37532514333724981</v>
+      </c>
+      <c r="E14" s="5">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.1120662689208984</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.2834310531616211</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.38126683235168463</v>
+      </c>
+      <c r="I14" s="5">
+        <v>81</v>
+      </c>
+      <c r="J14" s="4">
+        <v>6.4267745018005371</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5.3074564933776864</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.38671761751174932</v>
+      </c>
+      <c r="M14" s="5">
+        <v>115</v>
+      </c>
+      <c r="N14" s="4">
+        <v>6.6202764511108398</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5.5730853080749512</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.39134114980697632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5.0865931510925293</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.257023811340332</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.4240507185459137</v>
+      </c>
+      <c r="E15" s="5">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.6605992317199707</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.5166873931884766</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.42345735430717468</v>
+      </c>
+      <c r="I15" s="5">
+        <v>82</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6.1381955146789551</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4.7219929695129386</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.4213249683380127</v>
+      </c>
+      <c r="M15" s="5">
+        <v>116</v>
+      </c>
+      <c r="N15" s="4">
+        <v>6.4582948684692383</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5.0575160980224609</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.41863632202148438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5.2561616897583008</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.4078121185302734</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.37810149788856512</v>
+      </c>
+      <c r="E16" s="5">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.5807414054870614</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.3065471649169922</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.37345421314239502</v>
+      </c>
+      <c r="I16" s="5">
+        <v>83</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5.6642379760742188</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5.3131365776062012</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.37107518315315252</v>
+      </c>
+      <c r="M16" s="5">
+        <v>117</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5.7981867790222168</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5.4671597480773926</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.37002724409103388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.8734455108642578</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.0472316741943359</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.37373071908950811</v>
+      </c>
+      <c r="E17" s="5">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6.707770824432373</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8.0020027160644531</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.37690433859825129</v>
+      </c>
+      <c r="I17" s="5">
+        <v>84</v>
+      </c>
+      <c r="J17" s="4">
+        <v>7.2940564155578613</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7.8564448356628418</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.37879973649978638</v>
+      </c>
+      <c r="M17" s="5">
+        <v>118</v>
+      </c>
+      <c r="N17" s="4">
+        <v>7.5080709457397461</v>
+      </c>
+      <c r="O17" s="4">
+        <v>7.8966355323791504</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.37984970211982733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6.0203714370727539</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.761805534362793</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.3663966953754425</v>
+      </c>
+      <c r="E18" s="5">
+        <v>51</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.1550850868225098</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.7537369728088379</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.37068188190460211</v>
+      </c>
+      <c r="I18" s="5">
+        <v>85</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6.2461085319519043</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.6904172897338867</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.374471515417099</v>
+      </c>
+      <c r="M18" s="5">
+        <v>119</v>
+      </c>
+      <c r="N18" s="4">
+        <v>6.308072566986084</v>
+      </c>
+      <c r="O18" s="4">
+        <v>6.6148185729980469</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.37791374325752258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4.2437467575073242</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.749594926834106</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.37351292371749878</v>
+      </c>
+      <c r="E19" s="5">
+        <v>52</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.6300482749938956</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4.2053265571594238</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.37336564064025879</v>
+      </c>
+      <c r="I19" s="5">
+        <v>86</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6.6158442497253418</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4.474358081817627</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.37446904182434082</v>
+      </c>
+      <c r="M19" s="5">
+        <v>120</v>
+      </c>
+      <c r="N19" s="4">
+        <v>7.1301798820495614</v>
+      </c>
+      <c r="O19" s="4">
+        <v>4.6529293060302734</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.37660583853721619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4.337158203125</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.1769084930419922</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.33030503988265991</v>
+      </c>
+      <c r="E20" s="5">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.3392739295959473</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4.9245247840881348</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.33381718397140497</v>
+      </c>
+      <c r="I20" s="5">
+        <v>87</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5.8782291412353516</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5.5690097808837891</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.33610719442367548</v>
+      </c>
+      <c r="M20" s="5">
+        <v>121</v>
+      </c>
+      <c r="N20" s="4">
+        <v>6.1196584701538086</v>
+      </c>
+      <c r="O20" s="4">
+        <v>6.2132101058959961</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.3373945951461792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.2311630249023438</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6.057985782623291</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.31157100200653082</v>
+      </c>
+      <c r="E21" s="5">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5.7497310638427734</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6.351038932800293</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.30364620685577393</v>
+      </c>
+      <c r="I21" s="5">
+        <v>88</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6.0913052558898926</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6.3911542892456046</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.2961181104183197</v>
+      </c>
+      <c r="M21" s="5">
+        <v>122</v>
+      </c>
+      <c r="N21" s="4">
+        <v>6.2878546714782706</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6.4783473014831543</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.28871569037437439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5.842191219329834</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5.3263640403747559</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.32574373483657842</v>
+      </c>
+      <c r="E22" s="5">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6.2213907241821289</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6.0819940567016602</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.3219236433506012</v>
+      </c>
+      <c r="I22" s="5">
+        <v>89</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6.3162884712219238</v>
+      </c>
+      <c r="K22" s="4">
+        <v>6.6516413688659668</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.31788724660873408</v>
+      </c>
+      <c r="M22" s="5">
+        <v>123</v>
+      </c>
+      <c r="N22" s="4">
+        <v>6.2356562614440918</v>
+      </c>
+      <c r="O22" s="4">
+        <v>7.3028755187988281</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.3141472339630127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.0802693367004386</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.8371782302856454</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.31564828753471369</v>
+      </c>
+      <c r="E23" s="5">
+        <v>56</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.4782505035400391</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.3314671516418457</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.31978479027748108</v>
+      </c>
+      <c r="I23" s="5">
+        <v>90</v>
+      </c>
+      <c r="J23" s="4">
+        <v>6.5207839012145996</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5.5995316505432129</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.32396703958511353</v>
+      </c>
+      <c r="M23" s="5">
+        <v>124</v>
+      </c>
+      <c r="N23" s="4">
+        <v>6.3902087211608887</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5.8168067932128906</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.3275943398475647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5.7494850158691406</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6.0923070907592773</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.32702603936195368</v>
+      </c>
+      <c r="E24" s="5">
+        <v>57</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.9729251861572266</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6.6030879020690918</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.32771152257919312</v>
+      </c>
+      <c r="I24" s="5">
+        <v>91</v>
+      </c>
+      <c r="J24" s="4">
+        <v>6.0858774185180664</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6.9164624214172363</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.32761463522911072</v>
+      </c>
+      <c r="M24" s="5">
+        <v>125</v>
+      </c>
+      <c r="N24" s="4">
+        <v>6.087618350982666</v>
+      </c>
+      <c r="O24" s="4">
+        <v>7.0822772979736328</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.32721000909805298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.6852970123291016</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5.216092586517334</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.27474889159202581</v>
+      </c>
+      <c r="E25" s="5">
+        <v>58</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7.4800200462341309</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.8992586135864258</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.2726554274559021</v>
+      </c>
+      <c r="I25" s="5">
+        <v>92</v>
+      </c>
+      <c r="J25" s="4">
+        <v>7.5715212821960449</v>
+      </c>
+      <c r="K25" s="4">
+        <v>6.0757169723510742</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.27109542489051819</v>
+      </c>
+      <c r="M25" s="5">
+        <v>126</v>
+      </c>
+      <c r="N25" s="4">
+        <v>7.3504843711853027</v>
+      </c>
+      <c r="O25" s="4">
+        <v>5.9618301391601563</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.2701924741268158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4.3266777992248544</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6.9013843536376953</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.36376684904098511</v>
+      </c>
+      <c r="E26" s="5">
+        <v>59</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.4063472747802734</v>
+      </c>
+      <c r="G26" s="4">
+        <v>7.528627872467041</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.35967722535133362</v>
+      </c>
+      <c r="I26" s="5">
+        <v>93</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4.6388134956359863</v>
+      </c>
+      <c r="K26" s="4">
+        <v>7.8789205551147461</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.35640540719032288</v>
+      </c>
+      <c r="M26" s="5">
+        <v>127</v>
+      </c>
+      <c r="N26" s="4">
+        <v>4.9561724662780762</v>
+      </c>
+      <c r="O26" s="4">
+        <v>8.0962257385253906</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.35329899191856379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10.83905506134033</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.7316410541534419</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.29723566770553589</v>
+      </c>
+      <c r="E27" s="5">
+        <v>60</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9.9127941131591797</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4.5145902633666992</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.30116966366767878</v>
+      </c>
+      <c r="I27" s="5">
+        <v>94</v>
+      </c>
+      <c r="J27" s="4">
+        <v>8.9662008285522461</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5.2405109405517578</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.3030586838722229</v>
+      </c>
+      <c r="M27" s="5">
+        <v>128</v>
+      </c>
+      <c r="N27" s="4">
+        <v>8.1481647491455078</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5.9010496139526367</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.30370116233825678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4.7645688056945801</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5.0163836479187012</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.36936596035957342</v>
+      </c>
+      <c r="E28" s="5">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5.1669731140136719</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.8381757736206046</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.36644446849822998</v>
+      </c>
+      <c r="I28" s="5">
+        <v>95</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5.1947822570800781</v>
+      </c>
+      <c r="K28" s="4">
+        <v>6.3963770866394043</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.36461487412452698</v>
+      </c>
+      <c r="M28" s="5">
+        <v>129</v>
+      </c>
+      <c r="N28" s="4">
+        <v>5.0793976783752441</v>
+      </c>
+      <c r="O28" s="4">
+        <v>6.6263227462768546</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.36351519823074341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.129481315612793</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.6098794937133789</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.37469109892845148</v>
+      </c>
+      <c r="E29" s="5">
+        <v>62</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5.2308268547058114</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4.4510059356689453</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.3781430721282959</v>
+      </c>
+      <c r="I29" s="5">
+        <v>96</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5.3219742774963379</v>
+      </c>
+      <c r="K29" s="4">
+        <v>4.9592008590698242</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.38171574473381042</v>
+      </c>
+      <c r="M29" s="5">
+        <v>130</v>
+      </c>
+      <c r="N29" s="4">
+        <v>5.3793454170227051</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5.0158405303955078</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.38533881306648249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.2427096366882324</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.8099546432495122</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.41637623310089111</v>
+      </c>
+      <c r="E30" s="5">
+        <v>63</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.2904624938964844</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4.6643743515014648</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.41940462589263922</v>
+      </c>
+      <c r="I30" s="5">
+        <v>97</v>
+      </c>
+      <c r="J30" s="4">
+        <v>5.0974521636962891</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5.3656697273254386</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.42162248492240911</v>
+      </c>
+      <c r="M30" s="5">
+        <v>131</v>
+      </c>
+      <c r="N30" s="4">
+        <v>4.9037313461303711</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5.8713278770446777</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.42332801222801208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5.8045368194580078</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.5364611148834229</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.35774749517440801</v>
+      </c>
+      <c r="E31" s="5">
+        <v>64</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5.7300033569335938</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4.8910031318664551</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.35541573166847229</v>
+      </c>
+      <c r="I31" s="5">
+        <v>98</v>
+      </c>
+      <c r="J31" s="4">
+        <v>5.5870270729064941</v>
+      </c>
+      <c r="K31" s="4">
+        <v>5.7483119964599609</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.35421416163444519</v>
+      </c>
+      <c r="M31" s="5">
+        <v>132</v>
+      </c>
+      <c r="N31" s="4">
+        <v>5.4401249885559082</v>
+      </c>
+      <c r="O31" s="4">
+        <v>6.2180595397949219</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.3540152907371521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4.9164152145385742</v>
+      </c>
+      <c r="C32" s="4">
+        <v>6.7806649208068848</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.28722968697547913</v>
+      </c>
+      <c r="E32" s="5">
+        <v>65</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5.3704285621643066</v>
+      </c>
+      <c r="G32" s="4">
+        <v>7.2354030609130859</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.29068249464035029</v>
+      </c>
+      <c r="I32" s="5">
+        <v>99</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5.4949765205383301</v>
+      </c>
+      <c r="K32" s="4">
+        <v>7.540374755859375</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.2935355007648468</v>
+      </c>
+      <c r="M32" s="5">
+        <v>133</v>
+      </c>
+      <c r="N32" s="4">
+        <v>5.5066895484924316</v>
+      </c>
+      <c r="O32" s="4">
+        <v>7.7158937454223633</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.29585090279579163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>16.029935836791989</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.9586730003356934</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.31009644269943237</v>
+      </c>
+      <c r="E33" s="5">
+        <v>66</v>
+      </c>
+      <c r="F33" s="4">
+        <v>12.951755523681641</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.6898913383483887</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.30965286493301392</v>
+      </c>
+      <c r="I33" s="5">
+        <v>100</v>
+      </c>
+      <c r="J33" s="4">
+        <v>10.72490882873535</v>
+      </c>
+      <c r="K33" s="4">
+        <v>6.2286238670349121</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.3088211715221405</v>
+      </c>
+      <c r="M33" s="5">
+        <v>134</v>
+      </c>
+      <c r="N33" s="4">
+        <v>9.1578502655029297</v>
+      </c>
+      <c r="O33" s="4">
+        <v>6.6317358016967773</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0.30743375420570368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.8254303932189941</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.6650290489196777</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.3708406388759613</v>
+      </c>
+      <c r="E34" s="5">
+        <v>67</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6.3608207702636719</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6.0906782150268546</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.37048643827438349</v>
+      </c>
+      <c r="I34" s="5">
+        <v>101</v>
+      </c>
+      <c r="J34" s="4">
+        <v>6.4556436538696289</v>
+      </c>
+      <c r="K34" s="4">
+        <v>6.3648529052734384</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.37013432383537292</v>
+      </c>
+      <c r="M34" s="5">
+        <v>135</v>
+      </c>
+      <c r="N34" s="4">
+        <v>6.3872995376586914</v>
+      </c>
+      <c r="O34" s="4">
+        <v>6.3216667175292969</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.37026104331016541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>8.6052999496459961</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.9418008327484131</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.39537414908409119</v>
+      </c>
+      <c r="E35" s="3">
+        <v>68</v>
+      </c>
+      <c r="F35" s="2">
+        <v>7.9650082588195801</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4.911862850189209</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.39667344093322748</v>
+      </c>
+      <c r="I35" s="3">
+        <v>102</v>
+      </c>
+      <c r="J35" s="2">
+        <v>7.5124616622924796</v>
+      </c>
+      <c r="K35" s="2">
+        <v>5.6354289054870614</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.39883464574813843</v>
+      </c>
+      <c r="M35" s="3">
+        <v>136</v>
+      </c>
+      <c r="N35" s="2">
+        <v>7.2104883193969727</v>
+      </c>
+      <c r="O35" s="2">
+        <v>6.0538568496704102</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.40135228633880621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>